--- a/Foods_Separated.xlsx
+++ b/Foods_Separated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyo\Desktop\Elin Stuff\TableProcessor\Isolation2_UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDD708B-8122-4C47-A435-F50E999BD15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32C2C09-8DA4-4312-92C8-79FC34077B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{DA67263D-3A05-4A42-A715-362552531FA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DA67263D-3A05-4A42-A715-362552531FA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Meat" sheetId="1" r:id="rId1"/>
@@ -3220,504 +3220,6 @@
     <t>cha_pot cha Wheat Olive Oil Dough</t>
   </si>
   <si>
-    <t>fert.Yerles Egg</t>
-  </si>
-  <si>
-    <t>fert.Eulderna Egg</t>
-  </si>
-  <si>
-    <t>fert.Elea Egg</t>
-  </si>
-  <si>
-    <t>fert.Hillfolk Egg</t>
-  </si>
-  <si>
-    <t>fert.Juere Egg</t>
-  </si>
-  <si>
-    <t>fert.Norland Egg</t>
-  </si>
-  <si>
-    <t>fert.Roran Egg</t>
-  </si>
-  <si>
-    <t>fert.Mifu Egg</t>
-  </si>
-  <si>
-    <t>fert.Nefu Egg</t>
-  </si>
-  <si>
-    <t>fert.Succubus Egg</t>
-  </si>
-  <si>
-    <t>fert.Apostle Egg</t>
-  </si>
-  <si>
-    <t>fert.Catsister Egg</t>
-  </si>
-  <si>
-    <t>fert.Demigod Egg</t>
-  </si>
-  <si>
-    <t>fert.Mermaid Egg</t>
-  </si>
-  <si>
-    <t>fert.Giant Egg</t>
-  </si>
-  <si>
-    <t>fert.Asura Egg</t>
-  </si>
-  <si>
-    <t>fert.Yeek Egg</t>
-  </si>
-  <si>
-    <t>fert.Yith Egg</t>
-  </si>
-  <si>
-    <t>fert.Dog Egg</t>
-  </si>
-  <si>
-    <t>fert.Rock Egg</t>
-  </si>
-  <si>
-    <t>fert.Imp Egg</t>
-  </si>
-  <si>
-    <t>fert.Wisp Egg</t>
-  </si>
-  <si>
-    <t>fert.Rabbit Egg</t>
-  </si>
-  <si>
-    <t>fert.Horse Egg</t>
-  </si>
-  <si>
-    <t>fert.Ent Egg</t>
-  </si>
-  <si>
-    <t>fert.Wolf Egg</t>
-  </si>
-  <si>
-    <t>fert.Orc Egg</t>
-  </si>
-  <si>
-    <t>fert.Skeleton Egg</t>
-  </si>
-  <si>
-    <t>fert.Frog Egg</t>
-  </si>
-  <si>
-    <t>fert.Chaos Egg</t>
-  </si>
-  <si>
-    <t>fert.Snail Egg</t>
-  </si>
-  <si>
-    <t>fert.Crab Egg</t>
-  </si>
-  <si>
-    <t>fert.Machine Egg</t>
-  </si>
-  <si>
-    <t>fert.Machinegod Egg</t>
-  </si>
-  <si>
-    <t>fert.Mushroom Egg</t>
-  </si>
-  <si>
-    <t>fert.Cupid Egg</t>
-  </si>
-  <si>
-    <t>fert.Dinosaur Egg</t>
-  </si>
-  <si>
-    <t>fert.Quickling Egg</t>
-  </si>
-  <si>
-    <t>fert.Bear Egg</t>
-  </si>
-  <si>
-    <t>fert.Spider Egg</t>
-  </si>
-  <si>
-    <t>fert.Cerberus Egg</t>
-  </si>
-  <si>
-    <t>fert.Bat Egg</t>
-  </si>
-  <si>
-    <t>fert.Golem Egg</t>
-  </si>
-  <si>
-    <t>fert.Ancient Crab Egg</t>
-  </si>
-  <si>
-    <t>fert.Goblin Egg</t>
-  </si>
-  <si>
-    <t>fert.Kobold Egg</t>
-  </si>
-  <si>
-    <t>fert.Piece Egg</t>
-  </si>
-  <si>
-    <t>fert.Insect Egg</t>
-  </si>
-  <si>
-    <t>fert.Shiba Egg</t>
-  </si>
-  <si>
-    <t>fert.Stalker Egg</t>
-  </si>
-  <si>
-    <t>fert.Slime Egg</t>
-  </si>
-  <si>
-    <t>fert.Spirit Egg</t>
-  </si>
-  <si>
-    <t>fert.Zombie Egg</t>
-  </si>
-  <si>
-    <t>fert.Hand Egg</t>
-  </si>
-  <si>
-    <t>fert.Dragon Egg</t>
-  </si>
-  <si>
-    <t>fert.Drake Egg</t>
-  </si>
-  <si>
-    <t>fert.Troll Egg</t>
-  </si>
-  <si>
-    <t>fert.Chicken Egg</t>
-  </si>
-  <si>
-    <t>fert.Cat Egg</t>
-  </si>
-  <si>
-    <t>fert.Rat Egg</t>
-  </si>
-  <si>
-    <t>fert.Harpy Egg</t>
-  </si>
-  <si>
-    <t>fert.Bike Egg</t>
-  </si>
-  <si>
-    <t>fert.Sheep Egg</t>
-  </si>
-  <si>
-    <t>fert.Phantom Egg</t>
-  </si>
-  <si>
-    <t>fert.Snake Egg</t>
-  </si>
-  <si>
-    <t>fert.Pig Egg</t>
-  </si>
-  <si>
-    <t>fert.Mandrake Egg</t>
-  </si>
-  <si>
-    <t>fert.Minotaur Egg</t>
-  </si>
-  <si>
-    <t>fert.Centipede Egg</t>
-  </si>
-  <si>
-    <t>fert.Eye Egg</t>
-  </si>
-  <si>
-    <t>fert.Metal Egg</t>
-  </si>
-  <si>
-    <t>fert.Medusa Egg</t>
-  </si>
-  <si>
-    <t>fert.Hermit Egg</t>
-  </si>
-  <si>
-    <t>fert.Wraith Egg</t>
-  </si>
-  <si>
-    <t>fert.Ghost Egg</t>
-  </si>
-  <si>
-    <t>fert.Fairy Egg</t>
-  </si>
-  <si>
-    <t>fert.Armor Egg</t>
-  </si>
-  <si>
-    <t>fert.Lizardman Egg</t>
-  </si>
-  <si>
-    <t>fert.Lich Egg</t>
-  </si>
-  <si>
-    <t>fert.Hound Egg</t>
-  </si>
-  <si>
-    <t>fert.Wyvern Egg</t>
-  </si>
-  <si>
-    <t>fert.Wasp Egg</t>
-  </si>
-  <si>
-    <t>fert.God Egg</t>
-  </si>
-  <si>
-    <t>fert.Yerles Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Eulderna Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Elea Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Hillfolk Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Juere Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Norland Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Roran Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Mifu Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Nefu Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Succubus Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Apostle Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Catsister Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Demigod Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Mermaid Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Giant Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Asura Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Yeek Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Yith Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Dog Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Rock Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Imp Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Wisp Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Rabbit Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Horse Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Ent Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Wolf Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Orc Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Skeleton Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Frog Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Chaos Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Snail Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Crab Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Machine Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Machinegod Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Mushroom Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Cupid Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Dinosaur Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Quickling Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Bear Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Spider Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Cerberus Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Bat Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Golem Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Ancient Crab Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Goblin Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Kobold Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Piece Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Insect Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Shiba Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Stalker Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Slime Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Spirit Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Zombie Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Hand Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Dragon Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Drake Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Troll Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Chicken Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Cat Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Rat Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Harpy Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Bike Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Sheep Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Phantom Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Snake Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Pig Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Mandrake Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Minotaur Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Centipede Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Eye Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Metal Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Medusa Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Hermit Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Wraith Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Ghost Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Fairy Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Armor Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Lizardman Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Lich Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Hound Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Wyvern Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Wasp Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.God Egg Cheese</t>
-  </si>
-  <si>
     <t>God</t>
   </si>
   <si>
@@ -4655,6 +4157,504 @@
   </si>
   <si>
     <t>Marbled Zombie Meat Cheese</t>
+  </si>
+  <si>
+    <t>fert. Yerles Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Eulderna Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Elea Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Hillfolk Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Juere Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Norland Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Roran Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Mifu Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Nefu Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Succubus Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Apostle Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Catsister Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Demigod Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Mermaid Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Giant Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Asura Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Yeek Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Yith Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Dog Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Rock Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Imp Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Wisp Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Rabbit Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Horse Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Ent Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Wolf Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Orc Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Skeleton Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Frog Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Chaos Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Snail Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Crab Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Machine Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Machinegod Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Mushroom Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Cupid Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Dinosaur Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Quickling Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Bear Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Spider Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Cerberus Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Bat Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Golem Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Ancient Crab Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Goblin Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Kobold Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Piece Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Insect Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Shiba Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Stalker Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Slime Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Spirit Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Zombie Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Hand Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Dragon Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Drake Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Troll Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Chicken Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Cat Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Rat Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Harpy Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Bike Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Sheep Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Phantom Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Snake Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Pig Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Mandrake Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Minotaur Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Centipede Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Eye Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Metal Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Medusa Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Hermit Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Wraith Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Ghost Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Fairy Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Armor Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Lizardman Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Lich Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Hound Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Wyvern Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Wasp Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. God Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Wasp Egg</t>
+  </si>
+  <si>
+    <t>fert. God Egg</t>
+  </si>
+  <si>
+    <t>fert. Yerles Egg</t>
+  </si>
+  <si>
+    <t>fert. Eulderna Egg</t>
+  </si>
+  <si>
+    <t>fert. Elea Egg</t>
+  </si>
+  <si>
+    <t>fert. Hillfolk Egg</t>
+  </si>
+  <si>
+    <t>fert. Juere Egg</t>
+  </si>
+  <si>
+    <t>fert. Norland Egg</t>
+  </si>
+  <si>
+    <t>fert. Roran Egg</t>
+  </si>
+  <si>
+    <t>fert. Mifu Egg</t>
+  </si>
+  <si>
+    <t>fert. Nefu Egg</t>
+  </si>
+  <si>
+    <t>fert. Succubus Egg</t>
+  </si>
+  <si>
+    <t>fert. Apostle Egg</t>
+  </si>
+  <si>
+    <t>fert. Catsister Egg</t>
+  </si>
+  <si>
+    <t>fert. Demigod Egg</t>
+  </si>
+  <si>
+    <t>fert. Mermaid Egg</t>
+  </si>
+  <si>
+    <t>fert. Giant Egg</t>
+  </si>
+  <si>
+    <t>fert. Asura Egg</t>
+  </si>
+  <si>
+    <t>fert. Yeek Egg</t>
+  </si>
+  <si>
+    <t>fert. Yith Egg</t>
+  </si>
+  <si>
+    <t>fert. Dog Egg</t>
+  </si>
+  <si>
+    <t>fert. Rock Egg</t>
+  </si>
+  <si>
+    <t>fert. Imp Egg</t>
+  </si>
+  <si>
+    <t>fert. Wisp Egg</t>
+  </si>
+  <si>
+    <t>fert. Rabbit Egg</t>
+  </si>
+  <si>
+    <t>fert. Horse Egg</t>
+  </si>
+  <si>
+    <t>fert. Ent Egg</t>
+  </si>
+  <si>
+    <t>fert. Wolf Egg</t>
+  </si>
+  <si>
+    <t>fert. Orc Egg</t>
+  </si>
+  <si>
+    <t>fert. Skeleton Egg</t>
+  </si>
+  <si>
+    <t>fert. Frog Egg</t>
+  </si>
+  <si>
+    <t>fert. Chaos Egg</t>
+  </si>
+  <si>
+    <t>fert. Snail Egg</t>
+  </si>
+  <si>
+    <t>fert. Crab Egg</t>
+  </si>
+  <si>
+    <t>fert. Machine Egg</t>
+  </si>
+  <si>
+    <t>fert. Machinegod Egg</t>
+  </si>
+  <si>
+    <t>fert. Mushroom Egg</t>
+  </si>
+  <si>
+    <t>fert. Cupid Egg</t>
+  </si>
+  <si>
+    <t>fert. Dinosaur Egg</t>
+  </si>
+  <si>
+    <t>fert. Quickling Egg</t>
+  </si>
+  <si>
+    <t>fert. Bear Egg</t>
+  </si>
+  <si>
+    <t>fert. Spider Egg</t>
+  </si>
+  <si>
+    <t>fert. Cerberus Egg</t>
+  </si>
+  <si>
+    <t>fert. Bat Egg</t>
+  </si>
+  <si>
+    <t>fert. Golem Egg</t>
+  </si>
+  <si>
+    <t>fert. Ancient Crab Egg</t>
+  </si>
+  <si>
+    <t>fert. Goblin Egg</t>
+  </si>
+  <si>
+    <t>fert. Kobold Egg</t>
+  </si>
+  <si>
+    <t>fert. Piece Egg</t>
+  </si>
+  <si>
+    <t>fert. Insect Egg</t>
+  </si>
+  <si>
+    <t>fert. Shiba Egg</t>
+  </si>
+  <si>
+    <t>fert. Stalker Egg</t>
+  </si>
+  <si>
+    <t>fert. Slime Egg</t>
+  </si>
+  <si>
+    <t>fert. Spirit Egg</t>
+  </si>
+  <si>
+    <t>fert. Zombie Egg</t>
+  </si>
+  <si>
+    <t>fert. Hand Egg</t>
+  </si>
+  <si>
+    <t>fert. Dragon Egg</t>
+  </si>
+  <si>
+    <t>fert. Drake Egg</t>
+  </si>
+  <si>
+    <t>fert. Troll Egg</t>
+  </si>
+  <si>
+    <t>fert. Chicken Egg</t>
+  </si>
+  <si>
+    <t>fert. Cat Egg</t>
+  </si>
+  <si>
+    <t>fert. Rat Egg</t>
+  </si>
+  <si>
+    <t>fert. Harpy Egg</t>
+  </si>
+  <si>
+    <t>fert. Bike Egg</t>
+  </si>
+  <si>
+    <t>fert. Sheep Egg</t>
+  </si>
+  <si>
+    <t>fert. Phantom Egg</t>
+  </si>
+  <si>
+    <t>fert. Snake Egg</t>
+  </si>
+  <si>
+    <t>fert. Pig Egg</t>
+  </si>
+  <si>
+    <t>fert. Mandrake Egg</t>
+  </si>
+  <si>
+    <t>fert. Minotaur Egg</t>
+  </si>
+  <si>
+    <t>fert. Centipede Egg</t>
+  </si>
+  <si>
+    <t>fert. Eye Egg</t>
+  </si>
+  <si>
+    <t>fert. Metal Egg</t>
+  </si>
+  <si>
+    <t>fert. Medusa Egg</t>
+  </si>
+  <si>
+    <t>fert. Hermit Egg</t>
+  </si>
+  <si>
+    <t>fert. Wraith Egg</t>
+  </si>
+  <si>
+    <t>fert. Ghost Egg</t>
+  </si>
+  <si>
+    <t>fert. Fairy Egg</t>
+  </si>
+  <si>
+    <t>fert. Armor Egg</t>
+  </si>
+  <si>
+    <t>fert. Lizardman Egg</t>
+  </si>
+  <si>
+    <t>fert. Lich Egg</t>
+  </si>
+  <si>
+    <t>fert. Hound Egg</t>
+  </si>
+  <si>
+    <t>fert. Wyvern Egg</t>
   </si>
 </sst>
 </file>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>1226</v>
+        <v>1060</v>
       </c>
       <c r="B3" s="11">
         <v>5.2</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>1227</v>
+        <v>1061</v>
       </c>
       <c r="B4" s="11">
         <v>5.6</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>1228</v>
+        <v>1062</v>
       </c>
       <c r="B5" s="11">
         <v>6.4</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>1229</v>
+        <v>1063</v>
       </c>
       <c r="B6" s="11">
         <v>4.0999999999999996</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>1230</v>
+        <v>1064</v>
       </c>
       <c r="B7" s="11">
         <v>5.6</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>1231</v>
+        <v>1065</v>
       </c>
       <c r="B8" s="11">
         <v>4.5</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>1232</v>
+        <v>1066</v>
       </c>
       <c r="B9" s="11">
         <v>3.8</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>1233</v>
+        <v>1067</v>
       </c>
       <c r="B10" s="11">
         <v>6.8</v>
@@ -5694,12 +5694,12 @@
         <v>19</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>1225</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>1234</v>
+        <v>1068</v>
       </c>
       <c r="B11" s="11">
         <v>3.9</v>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>1235</v>
+        <v>1069</v>
       </c>
       <c r="B12" s="11">
         <v>4.9000000000000004</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>1236</v>
+        <v>1070</v>
       </c>
       <c r="B13" s="11">
         <v>7</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>1237</v>
+        <v>1071</v>
       </c>
       <c r="B14" s="11">
         <v>4.7</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>1238</v>
+        <v>1072</v>
       </c>
       <c r="B15" s="11">
         <v>5.6</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>1239</v>
+        <v>1073</v>
       </c>
       <c r="B16" s="11">
         <v>5.5</v>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>1240</v>
+        <v>1074</v>
       </c>
       <c r="B17" s="11">
         <v>4.7</v>
@@ -6100,7 +6100,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>1241</v>
+        <v>1075</v>
       </c>
       <c r="B18" s="11">
         <v>4.9000000000000004</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>1242</v>
+        <v>1076</v>
       </c>
       <c r="B19" s="11">
         <v>6.3</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>1243</v>
+        <v>1077</v>
       </c>
       <c r="B20" s="11">
         <v>3.9</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>1244</v>
+        <v>1078</v>
       </c>
       <c r="B21" s="11">
         <v>13.7</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>1245</v>
+        <v>1079</v>
       </c>
       <c r="B22" s="11">
         <v>8.1</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>1246</v>
+        <v>1080</v>
       </c>
       <c r="B23" s="11">
         <v>9</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>1247</v>
+        <v>1081</v>
       </c>
       <c r="B24" s="11">
         <v>4.5</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>1248</v>
+        <v>1082</v>
       </c>
       <c r="B25" s="11">
         <v>4.9000000000000004</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>1249</v>
+        <v>1083</v>
       </c>
       <c r="B26" s="11">
         <v>4.0999999999999996</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>1250</v>
+        <v>1084</v>
       </c>
       <c r="B27" s="11">
         <v>4.0999999999999996</v>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>1251</v>
+        <v>1085</v>
       </c>
       <c r="B28" s="11">
         <v>4.3</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>1252</v>
+        <v>1086</v>
       </c>
       <c r="B29" s="11">
         <v>4.7</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>1253</v>
+        <v>1087</v>
       </c>
       <c r="B30" s="11">
         <v>4.3</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>1254</v>
+        <v>1088</v>
       </c>
       <c r="B31" s="11">
         <v>6.8</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>1255</v>
+        <v>1089</v>
       </c>
       <c r="B32" s="11">
         <v>5.6</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>1256</v>
+        <v>1090</v>
       </c>
       <c r="B33" s="11">
         <v>9.6999999999999993</v>
@@ -7019,12 +7019,12 @@
         <v>19</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1225</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>1257</v>
+        <v>1091</v>
       </c>
       <c r="B34" s="11">
         <v>5.2</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>1258</v>
+        <v>1092</v>
       </c>
       <c r="B35" s="11">
         <v>6.3</v>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>1259</v>
+        <v>1093</v>
       </c>
       <c r="B36" s="11">
         <v>7.6</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>1260</v>
+        <v>1094</v>
       </c>
       <c r="B37" s="11">
         <v>6.3</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>1261</v>
+        <v>1095</v>
       </c>
       <c r="B38" s="11">
         <v>5.2</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>1262</v>
+        <v>1096</v>
       </c>
       <c r="B39" s="11">
         <v>4.5</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>1263</v>
+        <v>1097</v>
       </c>
       <c r="B40" s="11">
         <v>4.9000000000000004</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>1264</v>
+        <v>1098</v>
       </c>
       <c r="B41" s="11">
         <v>5.6</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>1265</v>
+        <v>1099</v>
       </c>
       <c r="B42" s="11">
         <v>4.5</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>1266</v>
+        <v>1100</v>
       </c>
       <c r="B43" s="11">
         <v>5.2</v>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>1267</v>
+        <v>1101</v>
       </c>
       <c r="B44" s="11">
         <v>5.2</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>1268</v>
+        <v>1102</v>
       </c>
       <c r="B45" s="11">
         <v>4.9000000000000004</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>1269</v>
+        <v>1103</v>
       </c>
       <c r="B46" s="11">
         <v>4.3</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>1270</v>
+        <v>1104</v>
       </c>
       <c r="B47" s="11">
         <v>4.5</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>1271</v>
+        <v>1105</v>
       </c>
       <c r="B48" s="11">
         <v>7.6</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>1272</v>
+        <v>1106</v>
       </c>
       <c r="B49" s="11">
         <v>6</v>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>1273</v>
+        <v>1107</v>
       </c>
       <c r="B50" s="11">
         <v>4.7</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>1274</v>
+        <v>1108</v>
       </c>
       <c r="B51" s="11">
         <v>5.2</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>1275</v>
+        <v>1109</v>
       </c>
       <c r="B52" s="11">
         <v>4.5</v>
@@ -8121,7 +8121,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>1276</v>
+        <v>1110</v>
       </c>
       <c r="B53" s="11">
         <v>4.7</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>1277</v>
+        <v>1111</v>
       </c>
       <c r="B54" s="11">
         <v>5.6</v>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>1278</v>
+        <v>1112</v>
       </c>
       <c r="B55" s="11">
         <v>6</v>
@@ -8294,7 +8294,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>1279</v>
+        <v>1113</v>
       </c>
       <c r="B56" s="11">
         <v>4</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>1280</v>
+        <v>1114</v>
       </c>
       <c r="B57" s="11">
         <v>6</v>
@@ -8408,7 +8408,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>1281</v>
+        <v>1115</v>
       </c>
       <c r="B58" s="11">
         <v>3.7</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>1282</v>
+        <v>1116</v>
       </c>
       <c r="B59" s="11">
         <v>4.3</v>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>1283</v>
+        <v>1117</v>
       </c>
       <c r="B60" s="11">
         <v>7.2</v>
@@ -8581,7 +8581,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>1284</v>
+        <v>1118</v>
       </c>
       <c r="B61" s="11">
         <v>5.2</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>1285</v>
+        <v>1119</v>
       </c>
       <c r="B62" s="11">
         <v>4.9000000000000004</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>1286</v>
+        <v>1120</v>
       </c>
       <c r="B63" s="11">
         <v>4.3</v>
@@ -8752,7 +8752,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>1287</v>
+        <v>1121</v>
       </c>
       <c r="B64" s="11">
         <v>4.9000000000000004</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>1288</v>
+        <v>1122</v>
       </c>
       <c r="B65" s="11">
         <v>4.7</v>
@@ -8866,7 +8866,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>1289</v>
+        <v>1123</v>
       </c>
       <c r="B66" s="11">
         <v>4.5</v>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>1290</v>
+        <v>1124</v>
       </c>
       <c r="B67" s="11">
         <v>4.5</v>
@@ -8980,7 +8980,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>1291</v>
+        <v>1125</v>
       </c>
       <c r="B68" s="11">
         <v>5.6</v>
@@ -9039,7 +9039,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>1292</v>
+        <v>1126</v>
       </c>
       <c r="B69" s="11">
         <v>4.5</v>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>1293</v>
+        <v>1127</v>
       </c>
       <c r="B70" s="11">
         <v>6.5</v>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>1294</v>
+        <v>1128</v>
       </c>
       <c r="B71" s="11">
         <v>6</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>1295</v>
+        <v>1129</v>
       </c>
       <c r="B72" s="11">
         <v>4.9000000000000004</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>1296</v>
+        <v>1130</v>
       </c>
       <c r="B73" s="11">
         <v>4.5</v>
@@ -9326,7 +9326,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>1297</v>
+        <v>1131</v>
       </c>
       <c r="B74" s="11">
         <v>6.3</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>1298</v>
+        <v>1132</v>
       </c>
       <c r="B75" s="11">
         <v>5.2</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>1299</v>
+        <v>1133</v>
       </c>
       <c r="B76" s="11">
         <v>8.1</v>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>1300</v>
+        <v>1134</v>
       </c>
       <c r="B77" s="11">
         <v>4.0999999999999996</v>
@@ -9554,7 +9554,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>1301</v>
+        <v>1135</v>
       </c>
       <c r="B78" s="11">
         <v>4.9000000000000004</v>
@@ -9613,7 +9613,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>1302</v>
+        <v>1136</v>
       </c>
       <c r="B79" s="11">
         <v>6.4</v>
@@ -9670,7 +9670,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>1303</v>
+        <v>1137</v>
       </c>
       <c r="B80" s="11">
         <v>6.5</v>
@@ -9866,7 +9866,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>1304</v>
+        <v>1138</v>
       </c>
       <c r="B3" s="11">
         <v>0</v>
@@ -9925,7 +9925,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>1305</v>
+        <v>1139</v>
       </c>
       <c r="B4" s="11">
         <v>6.6</v>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>1306</v>
+        <v>1140</v>
       </c>
       <c r="B5" s="11">
         <v>10.8</v>
@@ -10041,7 +10041,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>1307</v>
+        <v>1141</v>
       </c>
       <c r="B6" s="11">
         <v>6.2</v>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>1308</v>
+        <v>1142</v>
       </c>
       <c r="B7" s="11">
         <v>9.1999999999999993</v>
@@ -10155,7 +10155,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>1309</v>
+        <v>1143</v>
       </c>
       <c r="B8" s="11">
         <v>7</v>
@@ -10212,7 +10212,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>1310</v>
+        <v>1144</v>
       </c>
       <c r="B9" s="11">
         <v>6.5</v>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>1311</v>
+        <v>1145</v>
       </c>
       <c r="B10" s="11">
         <v>11.6</v>
@@ -10325,12 +10325,12 @@
         <v>19</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>1225</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>1312</v>
+        <v>1146</v>
       </c>
       <c r="B11" s="11">
         <v>6.8</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>1313</v>
+        <v>1147</v>
       </c>
       <c r="B12" s="11">
         <v>5.9</v>
@@ -10446,7 +10446,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>1314</v>
+        <v>1148</v>
       </c>
       <c r="B13" s="11">
         <v>8</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>1315</v>
+        <v>1149</v>
       </c>
       <c r="B14" s="11">
         <v>7.4</v>
@@ -10560,7 +10560,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>1316</v>
+        <v>1150</v>
       </c>
       <c r="B15" s="11">
         <v>6.6</v>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>1317</v>
+        <v>1151</v>
       </c>
       <c r="B16" s="11">
         <v>8.1999999999999993</v>
@@ -10674,7 +10674,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>1318</v>
+        <v>1152</v>
       </c>
       <c r="B17" s="11">
         <v>7.4</v>
@@ -10731,7 +10731,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>1319</v>
+        <v>1153</v>
       </c>
       <c r="B18" s="11">
         <v>6</v>
@@ -10790,7 +10790,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>1320</v>
+        <v>1154</v>
       </c>
       <c r="B19" s="11">
         <v>9.5</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>1321</v>
+        <v>1155</v>
       </c>
       <c r="B20" s="11">
         <v>6.8</v>
@@ -10904,7 +10904,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>1322</v>
+        <v>1156</v>
       </c>
       <c r="B21" s="11">
         <v>19</v>
@@ -10961,7 +10961,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>1323</v>
+        <v>1157</v>
       </c>
       <c r="B22" s="11">
         <v>12.5</v>
@@ -11018,7 +11018,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>1324</v>
+        <v>1158</v>
       </c>
       <c r="B23" s="11">
         <v>13</v>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>1325</v>
+        <v>1159</v>
       </c>
       <c r="B24" s="11">
         <v>7</v>
@@ -11134,7 +11134,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>1326</v>
+        <v>1160</v>
       </c>
       <c r="B25" s="11">
         <v>7.8</v>
@@ -11193,7 +11193,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>1327</v>
+        <v>1161</v>
       </c>
       <c r="B26" s="11">
         <v>6.2</v>
@@ -11250,7 +11250,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>1328</v>
+        <v>1162</v>
       </c>
       <c r="B27" s="11">
         <v>6.2</v>
@@ -11307,7 +11307,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>1329</v>
+        <v>1163</v>
       </c>
       <c r="B28" s="11">
         <v>6.6</v>
@@ -11364,7 +11364,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>1330</v>
+        <v>1164</v>
       </c>
       <c r="B29" s="11">
         <v>7.4</v>
@@ -11421,7 +11421,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>1331</v>
+        <v>1165</v>
       </c>
       <c r="B30" s="11">
         <v>6.6</v>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>1332</v>
+        <v>1166</v>
       </c>
       <c r="B31" s="11">
         <v>11.6</v>
@@ -11539,7 +11539,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>1333</v>
+        <v>1167</v>
       </c>
       <c r="B32" s="11">
         <v>6.6</v>
@@ -11596,7 +11596,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>1334</v>
+        <v>1168</v>
       </c>
       <c r="B33" s="11">
         <v>17.399999999999999</v>
@@ -11650,12 +11650,12 @@
         <v>19</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1225</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>1335</v>
+        <v>1169</v>
       </c>
       <c r="B34" s="11">
         <v>8.4</v>
@@ -11712,7 +11712,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>1336</v>
+        <v>1170</v>
       </c>
       <c r="B35" s="11">
         <v>9.5</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>1337</v>
+        <v>1171</v>
       </c>
       <c r="B36" s="11">
         <v>8.6</v>
@@ -11828,7 +11828,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>1338</v>
+        <v>1172</v>
       </c>
       <c r="B37" s="11">
         <v>9.5</v>
@@ -11885,7 +11885,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>1339</v>
+        <v>1173</v>
       </c>
       <c r="B38" s="11">
         <v>8.4</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>1340</v>
+        <v>1174</v>
       </c>
       <c r="B39" s="11">
         <v>7</v>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>1341</v>
+        <v>1175</v>
       </c>
       <c r="B40" s="11">
         <v>7.8</v>
@@ -12058,7 +12058,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>1342</v>
+        <v>1176</v>
       </c>
       <c r="B41" s="11">
         <v>6.6</v>
@@ -12115,7 +12115,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>1343</v>
+        <v>1177</v>
       </c>
       <c r="B42" s="11">
         <v>7</v>
@@ -12174,7 +12174,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>1344</v>
+        <v>1178</v>
       </c>
       <c r="B43" s="11">
         <v>6.2</v>
@@ -12231,7 +12231,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>1345</v>
+        <v>1179</v>
       </c>
       <c r="B44" s="11">
         <v>7.7</v>
@@ -12288,7 +12288,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>1346</v>
+        <v>1180</v>
       </c>
       <c r="B45" s="11">
         <v>7.8</v>
@@ -12345,7 +12345,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>1347</v>
+        <v>1181</v>
       </c>
       <c r="B46" s="11">
         <v>6.6</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>1348</v>
+        <v>1182</v>
       </c>
       <c r="B47" s="11">
         <v>7</v>
@@ -12463,7 +12463,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>1349</v>
+        <v>1183</v>
       </c>
       <c r="B48" s="11">
         <v>8.6</v>
@@ -12520,7 +12520,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>1350</v>
+        <v>1184</v>
       </c>
       <c r="B49" s="11">
         <v>8.5</v>
@@ -12577,7 +12577,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>1351</v>
+        <v>1185</v>
       </c>
       <c r="B50" s="11">
         <v>7.4</v>
@@ -12636,7 +12636,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>1352</v>
+        <v>1186</v>
       </c>
       <c r="B51" s="11">
         <v>8.4</v>
@@ -12695,7 +12695,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>1353</v>
+        <v>1187</v>
       </c>
       <c r="B52" s="11">
         <v>7</v>
@@ -12752,7 +12752,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>1354</v>
+        <v>1188</v>
       </c>
       <c r="B53" s="11">
         <v>7.4</v>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>1355</v>
+        <v>1189</v>
       </c>
       <c r="B54" s="11">
         <v>9.1999999999999993</v>
@@ -12868,7 +12868,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>1356</v>
+        <v>1190</v>
       </c>
       <c r="B55" s="11">
         <v>7</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>1357</v>
+        <v>1191</v>
       </c>
       <c r="B56" s="11">
         <v>6</v>
@@ -12982,7 +12982,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>1358</v>
+        <v>1192</v>
       </c>
       <c r="B57" s="11">
         <v>8.5</v>
@@ -13039,7 +13039,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>1359</v>
+        <v>1193</v>
       </c>
       <c r="B58" s="11">
         <v>6.2</v>
@@ -13096,7 +13096,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>1360</v>
+        <v>1194</v>
       </c>
       <c r="B59" s="11">
         <v>6.6</v>
@@ -13155,7 +13155,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>1361</v>
+        <v>1195</v>
       </c>
       <c r="B60" s="11">
         <v>9.9</v>
@@ -13212,7 +13212,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>1362</v>
+        <v>1196</v>
       </c>
       <c r="B61" s="11">
         <v>6.2</v>
@@ -13269,7 +13269,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>1363</v>
+        <v>1197</v>
       </c>
       <c r="B62" s="11">
         <v>7.8</v>
@@ -13326,7 +13326,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>1364</v>
+        <v>1198</v>
       </c>
       <c r="B63" s="11">
         <v>6.6</v>
@@ -13383,7 +13383,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>1365</v>
+        <v>1199</v>
       </c>
       <c r="B64" s="11">
         <v>7.2</v>
@@ -13440,7 +13440,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>1366</v>
+        <v>1200</v>
       </c>
       <c r="B65" s="11">
         <v>7.4</v>
@@ -13497,7 +13497,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>1367</v>
+        <v>1201</v>
       </c>
       <c r="B66" s="11">
         <v>7</v>
@@ -13554,7 +13554,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>1368</v>
+        <v>1202</v>
       </c>
       <c r="B67" s="11">
         <v>7</v>
@@ -13611,7 +13611,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>1369</v>
+        <v>1203</v>
       </c>
       <c r="B68" s="11">
         <v>9.1999999999999993</v>
@@ -13670,7 +13670,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>1370</v>
+        <v>1204</v>
       </c>
       <c r="B69" s="11">
         <v>7</v>
@@ -13729,7 +13729,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>1371</v>
+        <v>1205</v>
       </c>
       <c r="B70" s="11">
         <v>7.5</v>
@@ -13786,7 +13786,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>1372</v>
+        <v>1206</v>
       </c>
       <c r="B71" s="11">
         <v>10</v>
@@ -13843,7 +13843,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>1373</v>
+        <v>1207</v>
       </c>
       <c r="B72" s="11">
         <v>7.8</v>
@@ -13900,7 +13900,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>1374</v>
+        <v>1208</v>
       </c>
       <c r="B73" s="11">
         <v>7</v>
@@ -13957,7 +13957,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>1375</v>
+        <v>1209</v>
       </c>
       <c r="B74" s="11">
         <v>9.5</v>
@@ -14014,7 +14014,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>1376</v>
+        <v>1210</v>
       </c>
       <c r="B75" s="11">
         <v>0</v>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>1377</v>
+        <v>1211</v>
       </c>
       <c r="B76" s="11">
         <v>12.5</v>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>1378</v>
+        <v>1212</v>
       </c>
       <c r="B77" s="11">
         <v>6.2</v>
@@ -14185,7 +14185,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>1379</v>
+        <v>1213</v>
       </c>
       <c r="B78" s="11">
         <v>7.8</v>
@@ -14244,7 +14244,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>1380</v>
+        <v>1214</v>
       </c>
       <c r="B79" s="11">
         <v>10.8</v>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>1381</v>
+        <v>1215</v>
       </c>
       <c r="B80" s="11">
         <v>7.5</v>
@@ -14368,8 +14368,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:A167"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19173,7 +19173,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>1059</v>
+        <v>1457</v>
       </c>
       <c r="B85" s="12">
         <v>0</v>
@@ -19230,7 +19230,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>1060</v>
+        <v>1458</v>
       </c>
       <c r="B86" s="12">
         <v>0</v>
@@ -19287,7 +19287,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>1061</v>
+        <v>1459</v>
       </c>
       <c r="B87" s="12">
         <v>0</v>
@@ -19344,7 +19344,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>1062</v>
+        <v>1460</v>
       </c>
       <c r="B88" s="12">
         <v>4</v>
@@ -19401,7 +19401,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>1063</v>
+        <v>1461</v>
       </c>
       <c r="B89" s="12">
         <v>0</v>
@@ -19458,7 +19458,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>1064</v>
+        <v>1462</v>
       </c>
       <c r="B90" s="12">
         <v>2</v>
@@ -19515,7 +19515,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>1065</v>
+        <v>1463</v>
       </c>
       <c r="B91" s="12">
         <v>0</v>
@@ -19572,7 +19572,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>1066</v>
+        <v>1464</v>
       </c>
       <c r="B92" s="12">
         <v>0</v>
@@ -19629,7 +19629,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>1067</v>
+        <v>1465</v>
       </c>
       <c r="B93" s="12">
         <v>0</v>
@@ -19686,7 +19686,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>1068</v>
+        <v>1466</v>
       </c>
       <c r="B94" s="12">
         <v>0</v>
@@ -19743,7 +19743,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>1069</v>
+        <v>1467</v>
       </c>
       <c r="B95" s="12">
         <v>2</v>
@@ -19800,7 +19800,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>1070</v>
+        <v>1468</v>
       </c>
       <c r="B96" s="12">
         <v>2</v>
@@ -19859,7 +19859,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>1071</v>
+        <v>1469</v>
       </c>
       <c r="B97" s="12">
         <v>0</v>
@@ -19916,7 +19916,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>1072</v>
+        <v>1470</v>
       </c>
       <c r="B98" s="12">
         <v>0</v>
@@ -19973,7 +19973,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>1073</v>
+        <v>1471</v>
       </c>
       <c r="B99" s="12">
         <v>4</v>
@@ -20030,7 +20030,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>1074</v>
+        <v>1472</v>
       </c>
       <c r="B100" s="12">
         <v>4</v>
@@ -20087,7 +20087,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>1075</v>
+        <v>1473</v>
       </c>
       <c r="B101" s="12">
         <v>0</v>
@@ -20144,7 +20144,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>1076</v>
+        <v>1474</v>
       </c>
       <c r="B102" s="12">
         <v>0</v>
@@ -20201,7 +20201,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>1077</v>
+        <v>1475</v>
       </c>
       <c r="B103" s="12">
         <v>0</v>
@@ -20258,7 +20258,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>1078</v>
+        <v>1476</v>
       </c>
       <c r="B104" s="12">
         <v>0</v>
@@ -20315,7 +20315,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>1079</v>
+        <v>1477</v>
       </c>
       <c r="B105" s="12">
         <v>0</v>
@@ -20372,7 +20372,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>1080</v>
+        <v>1478</v>
       </c>
       <c r="B106" s="12">
         <v>0</v>
@@ -20429,7 +20429,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>1081</v>
+        <v>1479</v>
       </c>
       <c r="B107" s="12">
         <v>0</v>
@@ -20486,7 +20486,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>1082</v>
+        <v>1480</v>
       </c>
       <c r="B108" s="12">
         <v>2</v>
@@ -20543,7 +20543,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>1083</v>
+        <v>1481</v>
       </c>
       <c r="B109" s="12">
         <v>0</v>
@@ -20600,7 +20600,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>1084</v>
+        <v>1482</v>
       </c>
       <c r="B110" s="12">
         <v>2</v>
@@ -20657,7 +20657,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>1085</v>
+        <v>1483</v>
       </c>
       <c r="B111" s="12">
         <v>1</v>
@@ -20714,7 +20714,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>1086</v>
+        <v>1484</v>
       </c>
       <c r="B112" s="12">
         <v>2</v>
@@ -20771,7 +20771,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>1087</v>
+        <v>1485</v>
       </c>
       <c r="B113" s="12">
         <v>0</v>
@@ -20828,7 +20828,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>1088</v>
+        <v>1486</v>
       </c>
       <c r="B114" s="12">
         <v>0</v>
@@ -20885,7 +20885,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>1089</v>
+        <v>1487</v>
       </c>
       <c r="B115" s="12">
         <v>0</v>
@@ -20942,7 +20942,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>1090</v>
+        <v>1488</v>
       </c>
       <c r="B116" s="12">
         <v>0</v>
@@ -20999,7 +20999,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>1091</v>
+        <v>1489</v>
       </c>
       <c r="B117" s="12">
         <v>0</v>
@@ -21056,7 +21056,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>1092</v>
+        <v>1490</v>
       </c>
       <c r="B118" s="12">
         <v>6</v>
@@ -21113,7 +21113,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>1093</v>
+        <v>1491</v>
       </c>
       <c r="B119" s="12">
         <v>0</v>
@@ -21170,7 +21170,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>1094</v>
+        <v>1492</v>
       </c>
       <c r="B120" s="12">
         <v>0</v>
@@ -21227,7 +21227,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>1095</v>
+        <v>1493</v>
       </c>
       <c r="B121" s="12">
         <v>2</v>
@@ -21284,7 +21284,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>1096</v>
+        <v>1494</v>
       </c>
       <c r="B122" s="12">
         <v>0</v>
@@ -21341,7 +21341,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>1097</v>
+        <v>1495</v>
       </c>
       <c r="B123" s="12">
         <v>3</v>
@@ -21398,7 +21398,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>1098</v>
+        <v>1496</v>
       </c>
       <c r="B124" s="12">
         <v>0</v>
@@ -21455,7 +21455,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>1099</v>
+        <v>1497</v>
       </c>
       <c r="B125" s="12">
         <v>4</v>
@@ -21512,7 +21512,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>1100</v>
+        <v>1498</v>
       </c>
       <c r="B126" s="12">
         <v>0</v>
@@ -21569,7 +21569,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>1101</v>
+        <v>1499</v>
       </c>
       <c r="B127" s="12">
         <v>3</v>
@@ -21626,7 +21626,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>1102</v>
+        <v>1500</v>
       </c>
       <c r="B128" s="12">
         <v>5</v>
@@ -21683,7 +21683,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>1103</v>
+        <v>1501</v>
       </c>
       <c r="B129" s="12">
         <v>2</v>
@@ -21740,7 +21740,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>1104</v>
+        <v>1502</v>
       </c>
       <c r="B130" s="12">
         <v>2</v>
@@ -21797,7 +21797,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>1105</v>
+        <v>1503</v>
       </c>
       <c r="B131" s="12">
         <v>3</v>
@@ -21854,7 +21854,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>1106</v>
+        <v>1504</v>
       </c>
       <c r="B132" s="12">
         <v>0</v>
@@ -21911,7 +21911,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>1107</v>
+        <v>1505</v>
       </c>
       <c r="B133" s="12">
         <v>0</v>
@@ -21968,7 +21968,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>1108</v>
+        <v>1506</v>
       </c>
       <c r="B134" s="12">
         <v>3</v>
@@ -22025,7 +22025,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>1109</v>
+        <v>1507</v>
       </c>
       <c r="B135" s="12">
         <v>0</v>
@@ -22082,7 +22082,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>1110</v>
+        <v>1508</v>
       </c>
       <c r="B136" s="12">
         <v>0</v>
@@ -22139,7 +22139,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>1111</v>
+        <v>1509</v>
       </c>
       <c r="B137" s="12">
         <v>3</v>
@@ -22196,7 +22196,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>1112</v>
+        <v>1510</v>
       </c>
       <c r="B138" s="12">
         <v>0</v>
@@ -22253,7 +22253,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>1113</v>
+        <v>1511</v>
       </c>
       <c r="B139" s="12">
         <v>5</v>
@@ -22310,7 +22310,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>1114</v>
+        <v>1512</v>
       </c>
       <c r="B140" s="12">
         <v>4</v>
@@ -22367,7 +22367,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
-        <v>1115</v>
+        <v>1513</v>
       </c>
       <c r="B141" s="12">
         <v>3</v>
@@ -22424,7 +22424,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>1116</v>
+        <v>1514</v>
       </c>
       <c r="B142" s="12">
         <v>2</v>
@@ -22481,7 +22481,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>1117</v>
+        <v>1515</v>
       </c>
       <c r="B143" s="12">
         <v>2</v>
@@ -22540,7 +22540,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>1118</v>
+        <v>1516</v>
       </c>
       <c r="B144" s="12">
         <v>0</v>
@@ -22597,7 +22597,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>1119</v>
+        <v>1517</v>
       </c>
       <c r="B145" s="12">
         <v>0</v>
@@ -22654,7 +22654,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
-        <v>1120</v>
+        <v>1518</v>
       </c>
       <c r="B146" s="12">
         <v>0</v>
@@ -22711,7 +22711,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
-        <v>1121</v>
+        <v>1519</v>
       </c>
       <c r="B147" s="12">
         <v>0</v>
@@ -22768,7 +22768,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
-        <v>1122</v>
+        <v>1520</v>
       </c>
       <c r="B148" s="12">
         <v>0</v>
@@ -22825,7 +22825,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
-        <v>1123</v>
+        <v>1521</v>
       </c>
       <c r="B149" s="12">
         <v>0</v>
@@ -22882,7 +22882,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>1124</v>
+        <v>1522</v>
       </c>
       <c r="B150" s="12">
         <v>3</v>
@@ -22939,7 +22939,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>1125</v>
+        <v>1523</v>
       </c>
       <c r="B151" s="12">
         <v>0</v>
@@ -22996,7 +22996,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
-        <v>1126</v>
+        <v>1524</v>
       </c>
       <c r="B152" s="12">
         <v>4</v>
@@ -23053,7 +23053,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
-        <v>1127</v>
+        <v>1525</v>
       </c>
       <c r="B153" s="12">
         <v>1</v>
@@ -23110,7 +23110,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
-        <v>1128</v>
+        <v>1526</v>
       </c>
       <c r="B154" s="12">
         <v>0</v>
@@ -23167,7 +23167,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
-        <v>1129</v>
+        <v>1527</v>
       </c>
       <c r="B155" s="12">
         <v>0</v>
@@ -23224,7 +23224,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
-        <v>1130</v>
+        <v>1528</v>
       </c>
       <c r="B156" s="12">
         <v>0</v>
@@ -23281,7 +23281,7 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
-        <v>1131</v>
+        <v>1529</v>
       </c>
       <c r="B157" s="12">
         <v>2</v>
@@ -23338,7 +23338,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
-        <v>1132</v>
+        <v>1530</v>
       </c>
       <c r="B158" s="12">
         <v>0</v>
@@ -23395,7 +23395,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
-        <v>1133</v>
+        <v>1531</v>
       </c>
       <c r="B159" s="12">
         <v>0</v>
@@ -23452,7 +23452,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
-        <v>1134</v>
+        <v>1532</v>
       </c>
       <c r="B160" s="12">
         <v>0</v>
@@ -23509,7 +23509,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
-        <v>1135</v>
+        <v>1533</v>
       </c>
       <c r="B161" s="12">
         <v>2</v>
@@ -23566,7 +23566,7 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
-        <v>1136</v>
+        <v>1534</v>
       </c>
       <c r="B162" s="12">
         <v>2</v>
@@ -23623,7 +23623,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
-        <v>1137</v>
+        <v>1535</v>
       </c>
       <c r="B163" s="12">
         <v>0</v>
@@ -23680,7 +23680,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
-        <v>1138</v>
+        <v>1536</v>
       </c>
       <c r="B164" s="12">
         <v>0</v>
@@ -23737,7 +23737,7 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
-        <v>1139</v>
+        <v>1537</v>
       </c>
       <c r="B165" s="12">
         <v>4</v>
@@ -23794,7 +23794,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
-        <v>1140</v>
+        <v>1455</v>
       </c>
       <c r="B166" s="12">
         <v>0</v>
@@ -23851,7 +23851,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
-        <v>1141</v>
+        <v>1456</v>
       </c>
       <c r="B167" s="12">
         <v>0</v>
@@ -53730,8 +53730,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:S623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
-      <selection activeCell="K626" sqref="K626"/>
+    <sheetView topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="A464" sqref="A464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75636,7 +75636,7 @@
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="12" t="s">
-        <v>1142</v>
+        <v>1372</v>
       </c>
       <c r="B385" s="12">
         <v>0</v>
@@ -75693,7 +75693,7 @@
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="12" t="s">
-        <v>1143</v>
+        <v>1373</v>
       </c>
       <c r="B386" s="12">
         <v>0</v>
@@ -75750,7 +75750,7 @@
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="12" t="s">
-        <v>1144</v>
+        <v>1374</v>
       </c>
       <c r="B387" s="12">
         <v>0</v>
@@ -75807,7 +75807,7 @@
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="12" t="s">
-        <v>1145</v>
+        <v>1375</v>
       </c>
       <c r="B388" s="12">
         <v>4</v>
@@ -75864,7 +75864,7 @@
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="12" t="s">
-        <v>1146</v>
+        <v>1376</v>
       </c>
       <c r="B389" s="12">
         <v>0</v>
@@ -75921,7 +75921,7 @@
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="12" t="s">
-        <v>1147</v>
+        <v>1377</v>
       </c>
       <c r="B390" s="12">
         <v>2</v>
@@ -75978,7 +75978,7 @@
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="12" t="s">
-        <v>1148</v>
+        <v>1378</v>
       </c>
       <c r="B391" s="12">
         <v>0</v>
@@ -76035,7 +76035,7 @@
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="12" t="s">
-        <v>1149</v>
+        <v>1379</v>
       </c>
       <c r="B392" s="12">
         <v>0</v>
@@ -76092,7 +76092,7 @@
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="12" t="s">
-        <v>1150</v>
+        <v>1380</v>
       </c>
       <c r="B393" s="12">
         <v>0</v>
@@ -76149,7 +76149,7 @@
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="12" t="s">
-        <v>1151</v>
+        <v>1381</v>
       </c>
       <c r="B394" s="12">
         <v>0</v>
@@ -76206,7 +76206,7 @@
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="12" t="s">
-        <v>1152</v>
+        <v>1382</v>
       </c>
       <c r="B395" s="12">
         <v>2</v>
@@ -76263,7 +76263,7 @@
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
-        <v>1153</v>
+        <v>1383</v>
       </c>
       <c r="B396" s="12">
         <v>2</v>
@@ -76322,7 +76322,7 @@
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="12" t="s">
-        <v>1154</v>
+        <v>1384</v>
       </c>
       <c r="B397" s="12">
         <v>0</v>
@@ -76379,7 +76379,7 @@
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="12" t="s">
-        <v>1155</v>
+        <v>1385</v>
       </c>
       <c r="B398" s="12">
         <v>0</v>
@@ -76436,7 +76436,7 @@
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="12" t="s">
-        <v>1156</v>
+        <v>1386</v>
       </c>
       <c r="B399" s="12">
         <v>4</v>
@@ -76493,7 +76493,7 @@
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="12" t="s">
-        <v>1157</v>
+        <v>1387</v>
       </c>
       <c r="B400" s="12">
         <v>4</v>
@@ -76550,7 +76550,7 @@
     </row>
     <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="12" t="s">
-        <v>1158</v>
+        <v>1388</v>
       </c>
       <c r="B401" s="12">
         <v>0</v>
@@ -76607,7 +76607,7 @@
     </row>
     <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="12" t="s">
-        <v>1159</v>
+        <v>1389</v>
       </c>
       <c r="B402" s="12">
         <v>0</v>
@@ -76664,7 +76664,7 @@
     </row>
     <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="12" t="s">
-        <v>1160</v>
+        <v>1390</v>
       </c>
       <c r="B403" s="12">
         <v>0</v>
@@ -76721,7 +76721,7 @@
     </row>
     <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="12" t="s">
-        <v>1161</v>
+        <v>1391</v>
       </c>
       <c r="B404" s="12">
         <v>0</v>
@@ -76778,7 +76778,7 @@
     </row>
     <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="12" t="s">
-        <v>1162</v>
+        <v>1392</v>
       </c>
       <c r="B405" s="12">
         <v>0</v>
@@ -76835,7 +76835,7 @@
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="12" t="s">
-        <v>1163</v>
+        <v>1393</v>
       </c>
       <c r="B406" s="12">
         <v>0</v>
@@ -76892,7 +76892,7 @@
     </row>
     <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="12" t="s">
-        <v>1164</v>
+        <v>1394</v>
       </c>
       <c r="B407" s="12">
         <v>0</v>
@@ -76949,7 +76949,7 @@
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="12" t="s">
-        <v>1165</v>
+        <v>1395</v>
       </c>
       <c r="B408" s="12">
         <v>2</v>
@@ -77006,7 +77006,7 @@
     </row>
     <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="12" t="s">
-        <v>1166</v>
+        <v>1396</v>
       </c>
       <c r="B409" s="12">
         <v>0</v>
@@ -77063,7 +77063,7 @@
     </row>
     <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="12" t="s">
-        <v>1167</v>
+        <v>1397</v>
       </c>
       <c r="B410" s="12">
         <v>2</v>
@@ -77120,7 +77120,7 @@
     </row>
     <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="12" t="s">
-        <v>1168</v>
+        <v>1398</v>
       </c>
       <c r="B411" s="12">
         <v>1</v>
@@ -77177,7 +77177,7 @@
     </row>
     <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="12" t="s">
-        <v>1169</v>
+        <v>1399</v>
       </c>
       <c r="B412" s="12">
         <v>2</v>
@@ -77234,7 +77234,7 @@
     </row>
     <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="12" t="s">
-        <v>1170</v>
+        <v>1400</v>
       </c>
       <c r="B413" s="12">
         <v>0</v>
@@ -77291,7 +77291,7 @@
     </row>
     <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="12" t="s">
-        <v>1171</v>
+        <v>1401</v>
       </c>
       <c r="B414" s="12">
         <v>0</v>
@@ -77348,7 +77348,7 @@
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="12" t="s">
-        <v>1172</v>
+        <v>1402</v>
       </c>
       <c r="B415" s="12">
         <v>0</v>
@@ -77405,7 +77405,7 @@
     </row>
     <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="12" t="s">
-        <v>1173</v>
+        <v>1403</v>
       </c>
       <c r="B416" s="12">
         <v>0</v>
@@ -77462,7 +77462,7 @@
     </row>
     <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="12" t="s">
-        <v>1174</v>
+        <v>1404</v>
       </c>
       <c r="B417" s="12">
         <v>0</v>
@@ -77519,7 +77519,7 @@
     </row>
     <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="12" t="s">
-        <v>1175</v>
+        <v>1405</v>
       </c>
       <c r="B418" s="12">
         <v>6</v>
@@ -77576,7 +77576,7 @@
     </row>
     <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" s="12" t="s">
-        <v>1176</v>
+        <v>1406</v>
       </c>
       <c r="B419" s="12">
         <v>0</v>
@@ -77633,7 +77633,7 @@
     </row>
     <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="12" t="s">
-        <v>1177</v>
+        <v>1407</v>
       </c>
       <c r="B420" s="12">
         <v>0</v>
@@ -77690,7 +77690,7 @@
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" s="12" t="s">
-        <v>1178</v>
+        <v>1408</v>
       </c>
       <c r="B421" s="12">
         <v>2</v>
@@ -77747,7 +77747,7 @@
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="12" t="s">
-        <v>1179</v>
+        <v>1409</v>
       </c>
       <c r="B422" s="12">
         <v>0</v>
@@ -77804,7 +77804,7 @@
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="12" t="s">
-        <v>1180</v>
+        <v>1410</v>
       </c>
       <c r="B423" s="12">
         <v>3</v>
@@ -77861,7 +77861,7 @@
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="12" t="s">
-        <v>1181</v>
+        <v>1411</v>
       </c>
       <c r="B424" s="12">
         <v>0</v>
@@ -77918,7 +77918,7 @@
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="12" t="s">
-        <v>1182</v>
+        <v>1412</v>
       </c>
       <c r="B425" s="12">
         <v>4</v>
@@ -77975,7 +77975,7 @@
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" s="12" t="s">
-        <v>1183</v>
+        <v>1413</v>
       </c>
       <c r="B426" s="12">
         <v>0</v>
@@ -78032,7 +78032,7 @@
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="12" t="s">
-        <v>1184</v>
+        <v>1414</v>
       </c>
       <c r="B427" s="12">
         <v>3</v>
@@ -78089,7 +78089,7 @@
     </row>
     <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" s="12" t="s">
-        <v>1185</v>
+        <v>1415</v>
       </c>
       <c r="B428" s="12">
         <v>5</v>
@@ -78146,7 +78146,7 @@
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="12" t="s">
-        <v>1186</v>
+        <v>1416</v>
       </c>
       <c r="B429" s="12">
         <v>2</v>
@@ -78203,7 +78203,7 @@
     </row>
     <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" s="12" t="s">
-        <v>1187</v>
+        <v>1417</v>
       </c>
       <c r="B430" s="12">
         <v>2</v>
@@ -78260,7 +78260,7 @@
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="12" t="s">
-        <v>1188</v>
+        <v>1418</v>
       </c>
       <c r="B431" s="12">
         <v>3</v>
@@ -78317,7 +78317,7 @@
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" s="12" t="s">
-        <v>1189</v>
+        <v>1419</v>
       </c>
       <c r="B432" s="12">
         <v>0</v>
@@ -78374,7 +78374,7 @@
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" s="12" t="s">
-        <v>1190</v>
+        <v>1420</v>
       </c>
       <c r="B433" s="12">
         <v>0</v>
@@ -78431,7 +78431,7 @@
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
-        <v>1191</v>
+        <v>1421</v>
       </c>
       <c r="B434" s="12">
         <v>3</v>
@@ -78488,7 +78488,7 @@
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" s="12" t="s">
-        <v>1192</v>
+        <v>1422</v>
       </c>
       <c r="B435" s="12">
         <v>0</v>
@@ -78545,7 +78545,7 @@
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="12" t="s">
-        <v>1193</v>
+        <v>1423</v>
       </c>
       <c r="B436" s="12">
         <v>0</v>
@@ -78602,7 +78602,7 @@
     </row>
     <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="12" t="s">
-        <v>1194</v>
+        <v>1424</v>
       </c>
       <c r="B437" s="12">
         <v>3</v>
@@ -78659,7 +78659,7 @@
     </row>
     <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" s="12" t="s">
-        <v>1195</v>
+        <v>1425</v>
       </c>
       <c r="B438" s="12">
         <v>0</v>
@@ -78716,7 +78716,7 @@
     </row>
     <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="12" t="s">
-        <v>1196</v>
+        <v>1426</v>
       </c>
       <c r="B439" s="12">
         <v>5</v>
@@ -78773,7 +78773,7 @@
     </row>
     <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="12" t="s">
-        <v>1197</v>
+        <v>1427</v>
       </c>
       <c r="B440" s="12">
         <v>4</v>
@@ -78830,7 +78830,7 @@
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" s="12" t="s">
-        <v>1198</v>
+        <v>1428</v>
       </c>
       <c r="B441" s="12">
         <v>3</v>
@@ -78887,7 +78887,7 @@
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" s="12" t="s">
-        <v>1199</v>
+        <v>1429</v>
       </c>
       <c r="B442" s="12">
         <v>2</v>
@@ -78944,7 +78944,7 @@
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" s="12" t="s">
-        <v>1200</v>
+        <v>1430</v>
       </c>
       <c r="B443" s="12">
         <v>2</v>
@@ -79003,7 +79003,7 @@
     </row>
     <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" s="12" t="s">
-        <v>1201</v>
+        <v>1431</v>
       </c>
       <c r="B444" s="12">
         <v>0</v>
@@ -79060,7 +79060,7 @@
     </row>
     <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="12" t="s">
-        <v>1202</v>
+        <v>1432</v>
       </c>
       <c r="B445" s="12">
         <v>0</v>
@@ -79117,7 +79117,7 @@
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="12" t="s">
-        <v>1203</v>
+        <v>1433</v>
       </c>
       <c r="B446" s="12">
         <v>0</v>
@@ -79174,7 +79174,7 @@
     </row>
     <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="12" t="s">
-        <v>1204</v>
+        <v>1434</v>
       </c>
       <c r="B447" s="12">
         <v>0</v>
@@ -79231,7 +79231,7 @@
     </row>
     <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" s="12" t="s">
-        <v>1205</v>
+        <v>1435</v>
       </c>
       <c r="B448" s="12">
         <v>0</v>
@@ -79288,7 +79288,7 @@
     </row>
     <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="12" t="s">
-        <v>1206</v>
+        <v>1436</v>
       </c>
       <c r="B449" s="12">
         <v>0</v>
@@ -79345,7 +79345,7 @@
     </row>
     <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" s="12" t="s">
-        <v>1207</v>
+        <v>1437</v>
       </c>
       <c r="B450" s="12">
         <v>3</v>
@@ -79402,7 +79402,7 @@
     </row>
     <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" s="12" t="s">
-        <v>1208</v>
+        <v>1438</v>
       </c>
       <c r="B451" s="12">
         <v>0</v>
@@ -79459,7 +79459,7 @@
     </row>
     <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="12" t="s">
-        <v>1209</v>
+        <v>1439</v>
       </c>
       <c r="B452" s="12">
         <v>4</v>
@@ -79516,7 +79516,7 @@
     </row>
     <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="12" t="s">
-        <v>1210</v>
+        <v>1440</v>
       </c>
       <c r="B453" s="12">
         <v>1</v>
@@ -79573,7 +79573,7 @@
     </row>
     <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" s="12" t="s">
-        <v>1211</v>
+        <v>1441</v>
       </c>
       <c r="B454" s="12">
         <v>0</v>
@@ -79630,7 +79630,7 @@
     </row>
     <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" s="12" t="s">
-        <v>1212</v>
+        <v>1442</v>
       </c>
       <c r="B455" s="12">
         <v>0</v>
@@ -79687,7 +79687,7 @@
     </row>
     <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="12" t="s">
-        <v>1213</v>
+        <v>1443</v>
       </c>
       <c r="B456" s="12">
         <v>0</v>
@@ -79744,7 +79744,7 @@
     </row>
     <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" s="12" t="s">
-        <v>1214</v>
+        <v>1444</v>
       </c>
       <c r="B457" s="12">
         <v>2</v>
@@ -79801,7 +79801,7 @@
     </row>
     <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" s="12" t="s">
-        <v>1215</v>
+        <v>1445</v>
       </c>
       <c r="B458" s="12">
         <v>0</v>
@@ -79858,7 +79858,7 @@
     </row>
     <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" s="12" t="s">
-        <v>1216</v>
+        <v>1446</v>
       </c>
       <c r="B459" s="12">
         <v>0</v>
@@ -79915,7 +79915,7 @@
     </row>
     <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" s="12" t="s">
-        <v>1217</v>
+        <v>1447</v>
       </c>
       <c r="B460" s="12">
         <v>0</v>
@@ -79972,7 +79972,7 @@
     </row>
     <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="12" t="s">
-        <v>1218</v>
+        <v>1448</v>
       </c>
       <c r="B461" s="12">
         <v>2</v>
@@ -80029,7 +80029,7 @@
     </row>
     <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" s="12" t="s">
-        <v>1219</v>
+        <v>1449</v>
       </c>
       <c r="B462" s="12">
         <v>2</v>
@@ -80086,7 +80086,7 @@
     </row>
     <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" s="12" t="s">
-        <v>1220</v>
+        <v>1450</v>
       </c>
       <c r="B463" s="12">
         <v>0</v>
@@ -80143,7 +80143,7 @@
     </row>
     <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="12" t="s">
-        <v>1221</v>
+        <v>1451</v>
       </c>
       <c r="B464" s="12">
         <v>0</v>
@@ -80200,7 +80200,7 @@
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="12" t="s">
-        <v>1222</v>
+        <v>1452</v>
       </c>
       <c r="B465" s="12">
         <v>4</v>
@@ -80257,7 +80257,7 @@
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="12" t="s">
-        <v>1223</v>
+        <v>1453</v>
       </c>
       <c r="B466" s="12">
         <v>0</v>
@@ -80314,7 +80314,7 @@
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="12" t="s">
-        <v>1224</v>
+        <v>1454</v>
       </c>
       <c r="B467" s="12">
         <v>0</v>
@@ -80371,7 +80371,7 @@
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" s="11" t="s">
-        <v>1382</v>
+        <v>1216</v>
       </c>
       <c r="B468" s="11">
         <v>5.2</v>
@@ -80428,7 +80428,7 @@
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" s="11" t="s">
-        <v>1383</v>
+        <v>1217</v>
       </c>
       <c r="B469" s="11">
         <v>5.6</v>
@@ -80487,7 +80487,7 @@
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" s="11" t="s">
-        <v>1384</v>
+        <v>1218</v>
       </c>
       <c r="B470" s="11">
         <v>6.4</v>
@@ -80544,7 +80544,7 @@
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A471" s="11" t="s">
-        <v>1385</v>
+        <v>1219</v>
       </c>
       <c r="B471" s="11">
         <v>4.0999999999999996</v>
@@ -80601,7 +80601,7 @@
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" s="11" t="s">
-        <v>1386</v>
+        <v>1220</v>
       </c>
       <c r="B472" s="11">
         <v>5.6</v>
@@ -80658,7 +80658,7 @@
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A473" s="11" t="s">
-        <v>1387</v>
+        <v>1221</v>
       </c>
       <c r="B473" s="11">
         <v>4.5</v>
@@ -80715,7 +80715,7 @@
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" s="11" t="s">
-        <v>1388</v>
+        <v>1222</v>
       </c>
       <c r="B474" s="11">
         <v>3.8</v>
@@ -80774,7 +80774,7 @@
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A475" s="11" t="s">
-        <v>1389</v>
+        <v>1223</v>
       </c>
       <c r="B475" s="11">
         <v>6.8</v>
@@ -80828,12 +80828,12 @@
         <v>215</v>
       </c>
       <c r="S475" s="2" t="s">
-        <v>1225</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" s="11" t="s">
-        <v>1390</v>
+        <v>1224</v>
       </c>
       <c r="B476" s="11">
         <v>3.9</v>
@@ -80892,7 +80892,7 @@
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" s="11" t="s">
-        <v>1391</v>
+        <v>1225</v>
       </c>
       <c r="B477" s="11">
         <v>4.9000000000000004</v>
@@ -80949,7 +80949,7 @@
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" s="11" t="s">
-        <v>1392</v>
+        <v>1226</v>
       </c>
       <c r="B478" s="11">
         <v>7</v>
@@ -81006,7 +81006,7 @@
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" s="11" t="s">
-        <v>1393</v>
+        <v>1227</v>
       </c>
       <c r="B479" s="11">
         <v>4.7</v>
@@ -81063,7 +81063,7 @@
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" s="11" t="s">
-        <v>1394</v>
+        <v>1228</v>
       </c>
       <c r="B480" s="11">
         <v>5.6</v>
@@ -81120,7 +81120,7 @@
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A481" s="11" t="s">
-        <v>1395</v>
+        <v>1229</v>
       </c>
       <c r="B481" s="11">
         <v>5.5</v>
@@ -81177,7 +81177,7 @@
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A482" s="11" t="s">
-        <v>1396</v>
+        <v>1230</v>
       </c>
       <c r="B482" s="11">
         <v>4.7</v>
@@ -81234,7 +81234,7 @@
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A483" s="11" t="s">
-        <v>1397</v>
+        <v>1231</v>
       </c>
       <c r="B483" s="11">
         <v>4.9000000000000004</v>
@@ -81291,7 +81291,7 @@
     </row>
     <row r="484" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A484" s="11" t="s">
-        <v>1398</v>
+        <v>1232</v>
       </c>
       <c r="B484" s="11">
         <v>6.3</v>
@@ -81348,7 +81348,7 @@
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A485" s="11" t="s">
-        <v>1399</v>
+        <v>1233</v>
       </c>
       <c r="B485" s="11">
         <v>3.9</v>
@@ -81405,7 +81405,7 @@
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A486" s="11" t="s">
-        <v>1400</v>
+        <v>1234</v>
       </c>
       <c r="B486" s="11">
         <v>13.7</v>
@@ -81462,7 +81462,7 @@
     </row>
     <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A487" s="11" t="s">
-        <v>1401</v>
+        <v>1235</v>
       </c>
       <c r="B487" s="11">
         <v>8.1</v>
@@ -81519,7 +81519,7 @@
     </row>
     <row r="488" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A488" s="11" t="s">
-        <v>1402</v>
+        <v>1236</v>
       </c>
       <c r="B488" s="11">
         <v>9</v>
@@ -81576,7 +81576,7 @@
     </row>
     <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" s="11" t="s">
-        <v>1403</v>
+        <v>1237</v>
       </c>
       <c r="B489" s="11">
         <v>4.5</v>
@@ -81633,7 +81633,7 @@
     </row>
     <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" s="11" t="s">
-        <v>1404</v>
+        <v>1238</v>
       </c>
       <c r="B490" s="11">
         <v>4.9000000000000004</v>
@@ -81690,7 +81690,7 @@
     </row>
     <row r="491" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A491" s="11" t="s">
-        <v>1405</v>
+        <v>1239</v>
       </c>
       <c r="B491" s="11">
         <v>4.0999999999999996</v>
@@ -81747,7 +81747,7 @@
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" s="11" t="s">
-        <v>1406</v>
+        <v>1240</v>
       </c>
       <c r="B492" s="11">
         <v>4.0999999999999996</v>
@@ -81804,7 +81804,7 @@
     </row>
     <row r="493" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A493" s="11" t="s">
-        <v>1407</v>
+        <v>1241</v>
       </c>
       <c r="B493" s="11">
         <v>4.3</v>
@@ -81861,7 +81861,7 @@
     </row>
     <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" s="11" t="s">
-        <v>1408</v>
+        <v>1242</v>
       </c>
       <c r="B494" s="11">
         <v>4.7</v>
@@ -81918,7 +81918,7 @@
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A495" s="11" t="s">
-        <v>1409</v>
+        <v>1243</v>
       </c>
       <c r="B495" s="11">
         <v>4.3</v>
@@ -81977,7 +81977,7 @@
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" s="11" t="s">
-        <v>1410</v>
+        <v>1244</v>
       </c>
       <c r="B496" s="11">
         <v>6.8</v>
@@ -82034,7 +82034,7 @@
     </row>
     <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="11" t="s">
-        <v>1411</v>
+        <v>1245</v>
       </c>
       <c r="B497" s="11">
         <v>5.6</v>
@@ -82091,7 +82091,7 @@
     </row>
     <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="11" t="s">
-        <v>1412</v>
+        <v>1246</v>
       </c>
       <c r="B498" s="11">
         <v>9.6999999999999993</v>
@@ -82145,12 +82145,12 @@
         <v>215</v>
       </c>
       <c r="S498" s="2" t="s">
-        <v>1225</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="11" t="s">
-        <v>1413</v>
+        <v>1247</v>
       </c>
       <c r="B499" s="11">
         <v>5.2</v>
@@ -82207,7 +82207,7 @@
     </row>
     <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="11" t="s">
-        <v>1414</v>
+        <v>1248</v>
       </c>
       <c r="B500" s="11">
         <v>6.3</v>
@@ -82264,7 +82264,7 @@
     </row>
     <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" s="11" t="s">
-        <v>1415</v>
+        <v>1249</v>
       </c>
       <c r="B501" s="11">
         <v>7.6</v>
@@ -82321,7 +82321,7 @@
     </row>
     <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="11" t="s">
-        <v>1416</v>
+        <v>1250</v>
       </c>
       <c r="B502" s="11">
         <v>6.3</v>
@@ -82378,7 +82378,7 @@
     </row>
     <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="11" t="s">
-        <v>1417</v>
+        <v>1251</v>
       </c>
       <c r="B503" s="11">
         <v>5.2</v>
@@ -82435,7 +82435,7 @@
     </row>
     <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" s="11" t="s">
-        <v>1418</v>
+        <v>1252</v>
       </c>
       <c r="B504" s="11">
         <v>4.5</v>
@@ -82492,7 +82492,7 @@
     </row>
     <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" s="11" t="s">
-        <v>1419</v>
+        <v>1253</v>
       </c>
       <c r="B505" s="11">
         <v>4.9000000000000004</v>
@@ -82549,7 +82549,7 @@
     </row>
     <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" s="11" t="s">
-        <v>1420</v>
+        <v>1254</v>
       </c>
       <c r="B506" s="11">
         <v>5.6</v>
@@ -82606,7 +82606,7 @@
     </row>
     <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507" s="11" t="s">
-        <v>1421</v>
+        <v>1255</v>
       </c>
       <c r="B507" s="11">
         <v>4.5</v>
@@ -82665,7 +82665,7 @@
     </row>
     <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508" s="11" t="s">
-        <v>1422</v>
+        <v>1256</v>
       </c>
       <c r="B508" s="11">
         <v>5.2</v>
@@ -82722,7 +82722,7 @@
     </row>
     <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509" s="11" t="s">
-        <v>1423</v>
+        <v>1257</v>
       </c>
       <c r="B509" s="11">
         <v>5.2</v>
@@ -82779,7 +82779,7 @@
     </row>
     <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510" s="11" t="s">
-        <v>1424</v>
+        <v>1258</v>
       </c>
       <c r="B510" s="11">
         <v>4.9000000000000004</v>
@@ -82836,7 +82836,7 @@
     </row>
     <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" s="11" t="s">
-        <v>1425</v>
+        <v>1259</v>
       </c>
       <c r="B511" s="11">
         <v>4.3</v>
@@ -82893,7 +82893,7 @@
     </row>
     <row r="512" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A512" s="11" t="s">
-        <v>1426</v>
+        <v>1260</v>
       </c>
       <c r="B512" s="11">
         <v>4.5</v>
@@ -82950,7 +82950,7 @@
     </row>
     <row r="513" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A513" s="11" t="s">
-        <v>1427</v>
+        <v>1261</v>
       </c>
       <c r="B513" s="11">
         <v>7.6</v>
@@ -83007,7 +83007,7 @@
     </row>
     <row r="514" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A514" s="11" t="s">
-        <v>1428</v>
+        <v>1262</v>
       </c>
       <c r="B514" s="11">
         <v>6</v>
@@ -83064,7 +83064,7 @@
     </row>
     <row r="515" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A515" s="11" t="s">
-        <v>1429</v>
+        <v>1263</v>
       </c>
       <c r="B515" s="11">
         <v>4.7</v>
@@ -83121,7 +83121,7 @@
     </row>
     <row r="516" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A516" s="11" t="s">
-        <v>1430</v>
+        <v>1264</v>
       </c>
       <c r="B516" s="11">
         <v>5.2</v>
@@ -83178,7 +83178,7 @@
     </row>
     <row r="517" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A517" s="11" t="s">
-        <v>1431</v>
+        <v>1265</v>
       </c>
       <c r="B517" s="11">
         <v>4.5</v>
@@ -83235,7 +83235,7 @@
     </row>
     <row r="518" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A518" s="11" t="s">
-        <v>1432</v>
+        <v>1266</v>
       </c>
       <c r="B518" s="11">
         <v>4.7</v>
@@ -83294,7 +83294,7 @@
     </row>
     <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" s="11" t="s">
-        <v>1433</v>
+        <v>1267</v>
       </c>
       <c r="B519" s="11">
         <v>5.6</v>
@@ -83351,7 +83351,7 @@
     </row>
     <row r="520" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A520" s="11" t="s">
-        <v>1434</v>
+        <v>1268</v>
       </c>
       <c r="B520" s="11">
         <v>6</v>
@@ -83408,7 +83408,7 @@
     </row>
     <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="11" t="s">
-        <v>1435</v>
+        <v>1269</v>
       </c>
       <c r="B521" s="11">
         <v>4</v>
@@ -83465,7 +83465,7 @@
     </row>
     <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" s="11" t="s">
-        <v>1436</v>
+        <v>1270</v>
       </c>
       <c r="B522" s="11">
         <v>6</v>
@@ -83522,7 +83522,7 @@
     </row>
     <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" s="11" t="s">
-        <v>1437</v>
+        <v>1271</v>
       </c>
       <c r="B523" s="11">
         <v>3.7</v>
@@ -83579,7 +83579,7 @@
     </row>
     <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" s="11" t="s">
-        <v>1438</v>
+        <v>1272</v>
       </c>
       <c r="B524" s="11">
         <v>4.3</v>
@@ -83636,7 +83636,7 @@
     </row>
     <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" s="11" t="s">
-        <v>1439</v>
+        <v>1273</v>
       </c>
       <c r="B525" s="11">
         <v>7.2</v>
@@ -83693,7 +83693,7 @@
     </row>
     <row r="526" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A526" s="11" t="s">
-        <v>1440</v>
+        <v>1274</v>
       </c>
       <c r="B526" s="11">
         <v>5.2</v>
@@ -83750,7 +83750,7 @@
     </row>
     <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" s="11" t="s">
-        <v>1441</v>
+        <v>1275</v>
       </c>
       <c r="B527" s="11">
         <v>4.9000000000000004</v>
@@ -83807,7 +83807,7 @@
     </row>
     <row r="528" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A528" s="11" t="s">
-        <v>1442</v>
+        <v>1276</v>
       </c>
       <c r="B528" s="11">
         <v>4.3</v>
@@ -83864,7 +83864,7 @@
     </row>
     <row r="529" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A529" s="11" t="s">
-        <v>1443</v>
+        <v>1277</v>
       </c>
       <c r="B529" s="11">
         <v>4.9000000000000004</v>
@@ -83921,7 +83921,7 @@
     </row>
     <row r="530" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A530" s="11" t="s">
-        <v>1444</v>
+        <v>1278</v>
       </c>
       <c r="B530" s="11">
         <v>4.7</v>
@@ -83978,7 +83978,7 @@
     </row>
     <row r="531" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A531" s="11" t="s">
-        <v>1445</v>
+        <v>1279</v>
       </c>
       <c r="B531" s="11">
         <v>4.5</v>
@@ -84035,7 +84035,7 @@
     </row>
     <row r="532" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A532" s="11" t="s">
-        <v>1446</v>
+        <v>1280</v>
       </c>
       <c r="B532" s="11">
         <v>4.5</v>
@@ -84092,7 +84092,7 @@
     </row>
     <row r="533" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A533" s="11" t="s">
-        <v>1447</v>
+        <v>1281</v>
       </c>
       <c r="B533" s="11">
         <v>5.6</v>
@@ -84151,7 +84151,7 @@
     </row>
     <row r="534" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A534" s="11" t="s">
-        <v>1448</v>
+        <v>1282</v>
       </c>
       <c r="B534" s="11">
         <v>4.5</v>
@@ -84208,7 +84208,7 @@
     </row>
     <row r="535" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A535" s="11" t="s">
-        <v>1449</v>
+        <v>1283</v>
       </c>
       <c r="B535" s="11">
         <v>6.5</v>
@@ -84265,7 +84265,7 @@
     </row>
     <row r="536" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A536" s="11" t="s">
-        <v>1450</v>
+        <v>1284</v>
       </c>
       <c r="B536" s="11">
         <v>6</v>
@@ -84322,7 +84322,7 @@
     </row>
     <row r="537" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A537" s="11" t="s">
-        <v>1451</v>
+        <v>1285</v>
       </c>
       <c r="B537" s="11">
         <v>4.9000000000000004</v>
@@ -84379,7 +84379,7 @@
     </row>
     <row r="538" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A538" s="11" t="s">
-        <v>1452</v>
+        <v>1286</v>
       </c>
       <c r="B538" s="11">
         <v>4.5</v>
@@ -84436,7 +84436,7 @@
     </row>
     <row r="539" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A539" s="11" t="s">
-        <v>1453</v>
+        <v>1287</v>
       </c>
       <c r="B539" s="11">
         <v>6.3</v>
@@ -84493,7 +84493,7 @@
     </row>
     <row r="540" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A540" s="11" t="s">
-        <v>1454</v>
+        <v>1288</v>
       </c>
       <c r="B540" s="11">
         <v>5.2</v>
@@ -84550,7 +84550,7 @@
     </row>
     <row r="541" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A541" s="11" t="s">
-        <v>1455</v>
+        <v>1289</v>
       </c>
       <c r="B541" s="11">
         <v>8.1</v>
@@ -84607,7 +84607,7 @@
     </row>
     <row r="542" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A542" s="11" t="s">
-        <v>1456</v>
+        <v>1290</v>
       </c>
       <c r="B542" s="11">
         <v>4.0999999999999996</v>
@@ -84664,7 +84664,7 @@
     </row>
     <row r="543" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A543" s="11" t="s">
-        <v>1457</v>
+        <v>1291</v>
       </c>
       <c r="B543" s="11">
         <v>4.9000000000000004</v>
@@ -84721,7 +84721,7 @@
     </row>
     <row r="544" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A544" s="11" t="s">
-        <v>1458</v>
+        <v>1292</v>
       </c>
       <c r="B544" s="11">
         <v>6.4</v>
@@ -84778,7 +84778,7 @@
     </row>
     <row r="545" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A545" s="11" t="s">
-        <v>1459</v>
+        <v>1293</v>
       </c>
       <c r="B545" s="11">
         <v>6.5</v>
@@ -84837,7 +84837,7 @@
     </row>
     <row r="546" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
-        <v>1460</v>
+        <v>1294</v>
       </c>
       <c r="B546" s="3">
         <v>0</v>
@@ -84894,7 +84894,7 @@
     </row>
     <row r="547" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
-        <v>1461</v>
+        <v>1295</v>
       </c>
       <c r="B547" s="3">
         <v>6.6</v>
@@ -84953,7 +84953,7 @@
     </row>
     <row r="548" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
-        <v>1462</v>
+        <v>1296</v>
       </c>
       <c r="B548" s="3">
         <v>10.8</v>
@@ -85010,7 +85010,7 @@
     </row>
     <row r="549" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
-        <v>1463</v>
+        <v>1297</v>
       </c>
       <c r="B549" s="3">
         <v>6.2</v>
@@ -85067,7 +85067,7 @@
     </row>
     <row r="550" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
-        <v>1464</v>
+        <v>1298</v>
       </c>
       <c r="B550" s="3">
         <v>9.1999999999999993</v>
@@ -85124,7 +85124,7 @@
     </row>
     <row r="551" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>1465</v>
+        <v>1299</v>
       </c>
       <c r="B551" s="3">
         <v>7</v>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="552" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
-        <v>1466</v>
+        <v>1300</v>
       </c>
       <c r="B552" s="3">
         <v>6.5</v>
@@ -85240,7 +85240,7 @@
     </row>
     <row r="553" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
-        <v>1467</v>
+        <v>1301</v>
       </c>
       <c r="B553" s="3">
         <v>11.6</v>
@@ -85294,12 +85294,12 @@
         <v>215</v>
       </c>
       <c r="S553" s="2" t="s">
-        <v>1225</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="554" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
-        <v>1468</v>
+        <v>1302</v>
       </c>
       <c r="B554" s="3">
         <v>6.8</v>
@@ -85358,7 +85358,7 @@
     </row>
     <row r="555" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>1469</v>
+        <v>1303</v>
       </c>
       <c r="B555" s="3">
         <v>5.9</v>
@@ -85415,7 +85415,7 @@
     </row>
     <row r="556" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
-        <v>1470</v>
+        <v>1304</v>
       </c>
       <c r="B556" s="3">
         <v>8</v>
@@ -85472,7 +85472,7 @@
     </row>
     <row r="557" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
-        <v>1471</v>
+        <v>1305</v>
       </c>
       <c r="B557" s="3">
         <v>7.4</v>
@@ -85529,7 +85529,7 @@
     </row>
     <row r="558" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
-        <v>1472</v>
+        <v>1306</v>
       </c>
       <c r="B558" s="3">
         <v>6.6</v>
@@ -85586,7 +85586,7 @@
     </row>
     <row r="559" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>1473</v>
+        <v>1307</v>
       </c>
       <c r="B559" s="3">
         <v>8.1999999999999993</v>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="560" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
-        <v>1474</v>
+        <v>1308</v>
       </c>
       <c r="B560" s="3">
         <v>7.4</v>
@@ -85700,7 +85700,7 @@
     </row>
     <row r="561" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
-        <v>1475</v>
+        <v>1309</v>
       </c>
       <c r="B561" s="3">
         <v>6</v>
@@ -85757,7 +85757,7 @@
     </row>
     <row r="562" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
-        <v>1476</v>
+        <v>1310</v>
       </c>
       <c r="B562" s="3">
         <v>9.5</v>
@@ -85814,7 +85814,7 @@
     </row>
     <row r="563" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>1477</v>
+        <v>1311</v>
       </c>
       <c r="B563" s="3">
         <v>6.8</v>
@@ -85871,7 +85871,7 @@
     </row>
     <row r="564" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
-        <v>1478</v>
+        <v>1312</v>
       </c>
       <c r="B564" s="3">
         <v>19</v>
@@ -85928,7 +85928,7 @@
     </row>
     <row r="565" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
-        <v>1479</v>
+        <v>1313</v>
       </c>
       <c r="B565" s="3">
         <v>12.5</v>
@@ -85985,7 +85985,7 @@
     </row>
     <row r="566" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
-        <v>1480</v>
+        <v>1314</v>
       </c>
       <c r="B566" s="3">
         <v>13</v>
@@ -86042,7 +86042,7 @@
     </row>
     <row r="567" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
-        <v>1481</v>
+        <v>1315</v>
       </c>
       <c r="B567" s="3">
         <v>7</v>
@@ -86099,7 +86099,7 @@
     </row>
     <row r="568" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
-        <v>1482</v>
+        <v>1316</v>
       </c>
       <c r="B568" s="3">
         <v>7.8</v>
@@ -86156,7 +86156,7 @@
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
-        <v>1483</v>
+        <v>1317</v>
       </c>
       <c r="B569" s="3">
         <v>6.2</v>
@@ -86213,7 +86213,7 @@
     </row>
     <row r="570" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
-        <v>1484</v>
+        <v>1318</v>
       </c>
       <c r="B570" s="3">
         <v>6.2</v>
@@ -86270,7 +86270,7 @@
     </row>
     <row r="571" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
-        <v>1485</v>
+        <v>1319</v>
       </c>
       <c r="B571" s="3">
         <v>6.6</v>
@@ -86327,7 +86327,7 @@
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
-        <v>1486</v>
+        <v>1320</v>
       </c>
       <c r="B572" s="3">
         <v>7.4</v>
@@ -86384,7 +86384,7 @@
     </row>
     <row r="573" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
-        <v>1487</v>
+        <v>1321</v>
       </c>
       <c r="B573" s="3">
         <v>6.6</v>
@@ -86443,7 +86443,7 @@
     </row>
     <row r="574" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
-        <v>1488</v>
+        <v>1322</v>
       </c>
       <c r="B574" s="3">
         <v>11.6</v>
@@ -86500,7 +86500,7 @@
     </row>
     <row r="575" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
-        <v>1489</v>
+        <v>1323</v>
       </c>
       <c r="B575" s="3">
         <v>6.6</v>
@@ -86557,7 +86557,7 @@
     </row>
     <row r="576" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
-        <v>1490</v>
+        <v>1324</v>
       </c>
       <c r="B576" s="3">
         <v>17.399999999999999</v>
@@ -86611,12 +86611,12 @@
         <v>215</v>
       </c>
       <c r="S576" s="2" t="s">
-        <v>1225</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="577" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
-        <v>1491</v>
+        <v>1325</v>
       </c>
       <c r="B577" s="3">
         <v>8.4</v>
@@ -86673,7 +86673,7 @@
     </row>
     <row r="578" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
-        <v>1492</v>
+        <v>1326</v>
       </c>
       <c r="B578" s="3">
         <v>9.5</v>
@@ -86730,7 +86730,7 @@
     </row>
     <row r="579" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
-        <v>1493</v>
+        <v>1327</v>
       </c>
       <c r="B579" s="3">
         <v>8.6</v>
@@ -86787,7 +86787,7 @@
     </row>
     <row r="580" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
-        <v>1494</v>
+        <v>1328</v>
       </c>
       <c r="B580" s="3">
         <v>9.5</v>
@@ -86844,7 +86844,7 @@
     </row>
     <row r="581" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
-        <v>1495</v>
+        <v>1329</v>
       </c>
       <c r="B581" s="3">
         <v>8.4</v>
@@ -86901,7 +86901,7 @@
     </row>
     <row r="582" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
-        <v>1496</v>
+        <v>1330</v>
       </c>
       <c r="B582" s="3">
         <v>7</v>
@@ -86958,7 +86958,7 @@
     </row>
     <row r="583" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
-        <v>1497</v>
+        <v>1331</v>
       </c>
       <c r="B583" s="3">
         <v>7.8</v>
@@ -87015,7 +87015,7 @@
     </row>
     <row r="584" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
-        <v>1498</v>
+        <v>1332</v>
       </c>
       <c r="B584" s="3">
         <v>6.6</v>
@@ -87072,7 +87072,7 @@
     </row>
     <row r="585" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
-        <v>1499</v>
+        <v>1333</v>
       </c>
       <c r="B585" s="3">
         <v>7</v>
@@ -87131,7 +87131,7 @@
     </row>
     <row r="586" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
-        <v>1500</v>
+        <v>1334</v>
       </c>
       <c r="B586" s="3">
         <v>6.2</v>
@@ -87188,7 +87188,7 @@
     </row>
     <row r="587" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
-        <v>1501</v>
+        <v>1335</v>
       </c>
       <c r="B587" s="3">
         <v>7.7</v>
@@ -87245,7 +87245,7 @@
     </row>
     <row r="588" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
-        <v>1502</v>
+        <v>1336</v>
       </c>
       <c r="B588" s="3">
         <v>7.8</v>
@@ -87302,7 +87302,7 @@
     </row>
     <row r="589" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
-        <v>1503</v>
+        <v>1337</v>
       </c>
       <c r="B589" s="3">
         <v>6.6</v>
@@ -87359,7 +87359,7 @@
     </row>
     <row r="590" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
-        <v>1504</v>
+        <v>1338</v>
       </c>
       <c r="B590" s="3">
         <v>7</v>
@@ -87416,7 +87416,7 @@
     </row>
     <row r="591" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
-        <v>1505</v>
+        <v>1339</v>
       </c>
       <c r="B591" s="3">
         <v>8.6</v>
@@ -87473,7 +87473,7 @@
     </row>
     <row r="592" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
-        <v>1506</v>
+        <v>1340</v>
       </c>
       <c r="B592" s="3">
         <v>8.5</v>
@@ -87530,7 +87530,7 @@
     </row>
     <row r="593" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
-        <v>1507</v>
+        <v>1341</v>
       </c>
       <c r="B593" s="3">
         <v>7.4</v>
@@ -87587,7 +87587,7 @@
     </row>
     <row r="594" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
-        <v>1508</v>
+        <v>1342</v>
       </c>
       <c r="B594" s="3">
         <v>8.4</v>
@@ -87644,7 +87644,7 @@
     </row>
     <row r="595" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
-        <v>1509</v>
+        <v>1343</v>
       </c>
       <c r="B595" s="3">
         <v>7</v>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="596" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
-        <v>1510</v>
+        <v>1344</v>
       </c>
       <c r="B596" s="3">
         <v>7.4</v>
@@ -87760,7 +87760,7 @@
     </row>
     <row r="597" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
-        <v>1511</v>
+        <v>1345</v>
       </c>
       <c r="B597" s="3">
         <v>9.1999999999999993</v>
@@ -87817,7 +87817,7 @@
     </row>
     <row r="598" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
-        <v>1512</v>
+        <v>1346</v>
       </c>
       <c r="B598" s="3">
         <v>7</v>
@@ -87874,7 +87874,7 @@
     </row>
     <row r="599" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
-        <v>1513</v>
+        <v>1347</v>
       </c>
       <c r="B599" s="3">
         <v>6</v>
@@ -87931,7 +87931,7 @@
     </row>
     <row r="600" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
-        <v>1514</v>
+        <v>1348</v>
       </c>
       <c r="B600" s="3">
         <v>8.5</v>
@@ -87988,7 +87988,7 @@
     </row>
     <row r="601" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
-        <v>1515</v>
+        <v>1349</v>
       </c>
       <c r="B601" s="3">
         <v>6.2</v>
@@ -88045,7 +88045,7 @@
     </row>
     <row r="602" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
-        <v>1516</v>
+        <v>1350</v>
       </c>
       <c r="B602" s="3">
         <v>6.6</v>
@@ -88102,7 +88102,7 @@
     </row>
     <row r="603" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
-        <v>1517</v>
+        <v>1351</v>
       </c>
       <c r="B603" s="3">
         <v>9.9</v>
@@ -88159,7 +88159,7 @@
     </row>
     <row r="604" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
-        <v>1518</v>
+        <v>1352</v>
       </c>
       <c r="B604" s="3">
         <v>6.2</v>
@@ -88216,7 +88216,7 @@
     </row>
     <row r="605" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
-        <v>1519</v>
+        <v>1353</v>
       </c>
       <c r="B605" s="3">
         <v>7.8</v>
@@ -88273,7 +88273,7 @@
     </row>
     <row r="606" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
-        <v>1520</v>
+        <v>1354</v>
       </c>
       <c r="B606" s="3">
         <v>6.6</v>
@@ -88330,7 +88330,7 @@
     </row>
     <row r="607" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
-        <v>1521</v>
+        <v>1355</v>
       </c>
       <c r="B607" s="3">
         <v>7.2</v>
@@ -88387,7 +88387,7 @@
     </row>
     <row r="608" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
-        <v>1522</v>
+        <v>1356</v>
       </c>
       <c r="B608" s="3">
         <v>7.4</v>
@@ -88444,7 +88444,7 @@
     </row>
     <row r="609" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
-        <v>1523</v>
+        <v>1357</v>
       </c>
       <c r="B609" s="3">
         <v>7</v>
@@ -88501,7 +88501,7 @@
     </row>
     <row r="610" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
-        <v>1524</v>
+        <v>1358</v>
       </c>
       <c r="B610" s="3">
         <v>7</v>
@@ -88558,7 +88558,7 @@
     </row>
     <row r="611" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
-        <v>1525</v>
+        <v>1359</v>
       </c>
       <c r="B611" s="3">
         <v>9.1999999999999993</v>
@@ -88617,7 +88617,7 @@
     </row>
     <row r="612" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
-        <v>1526</v>
+        <v>1360</v>
       </c>
       <c r="B612" s="3">
         <v>7</v>
@@ -88674,7 +88674,7 @@
     </row>
     <row r="613" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
-        <v>1527</v>
+        <v>1361</v>
       </c>
       <c r="B613" s="3">
         <v>7.5</v>
@@ -88731,7 +88731,7 @@
     </row>
     <row r="614" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
-        <v>1528</v>
+        <v>1362</v>
       </c>
       <c r="B614" s="3">
         <v>10</v>
@@ -88788,7 +88788,7 @@
     </row>
     <row r="615" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
-        <v>1529</v>
+        <v>1363</v>
       </c>
       <c r="B615" s="3">
         <v>7.8</v>
@@ -88845,7 +88845,7 @@
     </row>
     <row r="616" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
-        <v>1530</v>
+        <v>1364</v>
       </c>
       <c r="B616" s="3">
         <v>7</v>
@@ -88902,7 +88902,7 @@
     </row>
     <row r="617" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
-        <v>1531</v>
+        <v>1365</v>
       </c>
       <c r="B617" s="3">
         <v>9.5</v>
@@ -88959,7 +88959,7 @@
     </row>
     <row r="618" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
-        <v>1532</v>
+        <v>1366</v>
       </c>
       <c r="B618" s="3">
         <v>0</v>
@@ -89016,7 +89016,7 @@
     </row>
     <row r="619" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
-        <v>1533</v>
+        <v>1367</v>
       </c>
       <c r="B619" s="3">
         <v>12.5</v>
@@ -89073,7 +89073,7 @@
     </row>
     <row r="620" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
-        <v>1534</v>
+        <v>1368</v>
       </c>
       <c r="B620" s="3">
         <v>6.2</v>
@@ -89130,7 +89130,7 @@
     </row>
     <row r="621" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
-        <v>1535</v>
+        <v>1369</v>
       </c>
       <c r="B621" s="3">
         <v>7.8</v>
@@ -89187,7 +89187,7 @@
     </row>
     <row r="622" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
-        <v>1536</v>
+        <v>1370</v>
       </c>
       <c r="B622" s="3">
         <v>10.8</v>
@@ -89244,7 +89244,7 @@
     </row>
     <row r="623" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
-        <v>1537</v>
+        <v>1371</v>
       </c>
       <c r="B623" s="3">
         <v>7.5</v>
